--- a/biology/Biochimie/Pyrophosphate_de_géranyle/Pyrophosphate_de_géranyle.xlsx
+++ b/biology/Biochimie/Pyrophosphate_de_géranyle/Pyrophosphate_de_géranyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyrophosphate_de_g%C3%A9ranyle</t>
+          <t>Pyrophosphate_de_géranyle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pyrophosphate de géranyle, souvent improprement désigné sous le terme «  géranyl-pyrophosphate » par calque de l'anglais (geranyl pyrophosphate), également souvent désigné sous son sigle anglophone, GPP, est un composé organique de formule brute C10H20O7P2, l'ester de pyrophosphate du géraniol. Il est le précurseur des monoterpènes comme le menthol, le camphre, le limonène, le géraniol, le citral, etc. Il a dix atomes de carbone.
